--- a/data/pca/factorExposure/factorExposure_2013-04-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-22.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>2.758042461290949e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001865656788643034</v>
+      </c>
+      <c r="C2">
+        <v>0.03263293797931884</v>
+      </c>
+      <c r="D2">
+        <v>-0.007125601712453391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001824541400644925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006081584803556894</v>
+      </c>
+      <c r="C4">
+        <v>0.08640584673250433</v>
+      </c>
+      <c r="D4">
+        <v>-0.07644987864509191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.001026881674894394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.013350837526555</v>
+      </c>
+      <c r="C6">
+        <v>0.1083697726683694</v>
+      </c>
+      <c r="D6">
+        <v>-0.03594944907666574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002077678915645025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004603076215633745</v>
+      </c>
+      <c r="C7">
+        <v>0.0542210194688055</v>
+      </c>
+      <c r="D7">
+        <v>-0.03488157385627761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0001287780652904545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005556315926457959</v>
+      </c>
+      <c r="C8">
+        <v>0.0370825109698852</v>
+      </c>
+      <c r="D8">
+        <v>-0.03778674520729268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003812289563645893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004035063769115968</v>
+      </c>
+      <c r="C9">
+        <v>0.0699638771030234</v>
+      </c>
+      <c r="D9">
+        <v>-0.07269145337150572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004425012865760854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005524265182911083</v>
+      </c>
+      <c r="C10">
+        <v>0.06974050970304825</v>
+      </c>
+      <c r="D10">
+        <v>0.2115800039546151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003522811903863159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005261109928605449</v>
+      </c>
+      <c r="C11">
+        <v>0.07859362271624698</v>
+      </c>
+      <c r="D11">
+        <v>-0.06592688560932784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0001397757711084677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003936873495051989</v>
+      </c>
+      <c r="C12">
+        <v>0.0635221876022872</v>
+      </c>
+      <c r="D12">
+        <v>-0.04825622139759542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.00304003314286966</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008308241288629897</v>
+      </c>
+      <c r="C13">
+        <v>0.06493950572007647</v>
+      </c>
+      <c r="D13">
+        <v>-0.06801495854773346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001769952450470126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001386327010149642</v>
+      </c>
+      <c r="C14">
+        <v>0.04631404887263622</v>
+      </c>
+      <c r="D14">
+        <v>-0.01062821299211895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001089707183230502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005850202769813957</v>
+      </c>
+      <c r="C15">
+        <v>0.04110729744888827</v>
+      </c>
+      <c r="D15">
+        <v>-0.03208279755296335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001754881298307816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004862070586830244</v>
+      </c>
+      <c r="C16">
+        <v>0.06531150258223774</v>
+      </c>
+      <c r="D16">
+        <v>-0.04945126910003904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>6.544249673115096e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008851991859943875</v>
+      </c>
+      <c r="C20">
+        <v>0.06538824655422754</v>
+      </c>
+      <c r="D20">
+        <v>-0.054187788009732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005383579348676194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.00981937822628373</v>
+      </c>
+      <c r="C21">
+        <v>0.02239746103800036</v>
+      </c>
+      <c r="D21">
+        <v>-0.03576872907592941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01692711677380637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00702867743943951</v>
+      </c>
+      <c r="C22">
+        <v>0.09247880530002396</v>
+      </c>
+      <c r="D22">
+        <v>-0.1049336429280522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01725012332356337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006843845714412722</v>
+      </c>
+      <c r="C23">
+        <v>0.0932980848393134</v>
+      </c>
+      <c r="D23">
+        <v>-0.1053709858119915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002319774023685002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004889609622001373</v>
+      </c>
+      <c r="C24">
+        <v>0.07341164990342422</v>
+      </c>
+      <c r="D24">
+        <v>-0.06155328103793858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004295423013603725</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002689652299212067</v>
+      </c>
+      <c r="C25">
+        <v>0.07747150532074787</v>
+      </c>
+      <c r="D25">
+        <v>-0.06640950211518246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006422714115164609</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003625838349584339</v>
+      </c>
+      <c r="C26">
+        <v>0.04224171865296093</v>
+      </c>
+      <c r="D26">
+        <v>-0.02864665239973819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.00535696836626676</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006861514019053967</v>
+      </c>
+      <c r="C28">
+        <v>0.1184132662922401</v>
+      </c>
+      <c r="D28">
+        <v>0.3100310125461115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001537523415786052</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003065556954562989</v>
+      </c>
+      <c r="C29">
+        <v>0.0495992462180823</v>
+      </c>
+      <c r="D29">
+        <v>-0.008508740413651321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.004051014617908778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008627645752033517</v>
+      </c>
+      <c r="C30">
+        <v>0.1393154717806805</v>
+      </c>
+      <c r="D30">
+        <v>-0.1052627174117714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.000113464962048898</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006112130541892403</v>
+      </c>
+      <c r="C31">
+        <v>0.04562434828237004</v>
+      </c>
+      <c r="D31">
+        <v>-0.03071083439034311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0009214846247800056</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003974440989078229</v>
+      </c>
+      <c r="C32">
+        <v>0.03980570759617155</v>
+      </c>
+      <c r="D32">
+        <v>-0.01905474546820652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.00329267567893259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007812196437261872</v>
+      </c>
+      <c r="C33">
+        <v>0.08400001646167098</v>
+      </c>
+      <c r="D33">
+        <v>-0.07602102318960204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004803797470910897</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003737888441667077</v>
+      </c>
+      <c r="C34">
+        <v>0.05771251066220431</v>
+      </c>
+      <c r="D34">
+        <v>-0.04698704432071799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.003103558123532238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004705984465887671</v>
+      </c>
+      <c r="C35">
+        <v>0.03879736110489991</v>
+      </c>
+      <c r="D35">
+        <v>-0.01371124137814292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004181190416367988</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00140439115194513</v>
+      </c>
+      <c r="C36">
+        <v>0.02421932589887666</v>
+      </c>
+      <c r="D36">
+        <v>-0.02262986093343277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002056143892343685</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009495488774513615</v>
+      </c>
+      <c r="C38">
+        <v>0.03456611438694978</v>
+      </c>
+      <c r="D38">
+        <v>-0.02007864602666418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01335643026169943</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001019547624553856</v>
+      </c>
+      <c r="C39">
+        <v>0.1160281722877299</v>
+      </c>
+      <c r="D39">
+        <v>-0.08224773330857342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009792582324143081</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001925887008368277</v>
+      </c>
+      <c r="C40">
+        <v>0.08544010722385952</v>
+      </c>
+      <c r="D40">
+        <v>-0.01962141746165566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004156854576234543</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007266780193147461</v>
+      </c>
+      <c r="C41">
+        <v>0.03897658802233631</v>
+      </c>
+      <c r="D41">
+        <v>-0.03456436573450984</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003241028021487809</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003487399536133765</v>
+      </c>
+      <c r="C43">
+        <v>0.05089997570563951</v>
+      </c>
+      <c r="D43">
+        <v>-0.02519545101285685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.003250769224293107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003292810242557258</v>
+      </c>
+      <c r="C44">
+        <v>0.1108604108572996</v>
+      </c>
+      <c r="D44">
+        <v>-0.08156088890143208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001825380814341765</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002224269189826083</v>
+      </c>
+      <c r="C46">
+        <v>0.0342850535887699</v>
+      </c>
+      <c r="D46">
+        <v>-0.02984381437941844</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0009138367323756108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002638315024026632</v>
+      </c>
+      <c r="C47">
+        <v>0.03862939979456176</v>
+      </c>
+      <c r="D47">
+        <v>-0.02296971486388823</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003127672634208523</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006322312629818782</v>
+      </c>
+      <c r="C48">
+        <v>0.02834723124188495</v>
+      </c>
+      <c r="D48">
+        <v>-0.03424700571143714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01466433527007158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01438843396352217</v>
+      </c>
+      <c r="C49">
+        <v>0.1757631760174334</v>
+      </c>
+      <c r="D49">
+        <v>-0.02246847089093194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001449332149517167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003511913203696862</v>
+      </c>
+      <c r="C50">
+        <v>0.04289579002114654</v>
+      </c>
+      <c r="D50">
+        <v>-0.0359759343307701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001100669888352003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004243414405921641</v>
+      </c>
+      <c r="C51">
+        <v>0.02152786432700645</v>
+      </c>
+      <c r="D51">
+        <v>-0.03188064694291431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0002238063335128654</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01991785044533533</v>
+      </c>
+      <c r="C53">
+        <v>0.1663539637489161</v>
+      </c>
+      <c r="D53">
+        <v>-0.04395085062302714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0007161330728775098</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008599690962947208</v>
+      </c>
+      <c r="C54">
+        <v>0.05545729712484399</v>
+      </c>
+      <c r="D54">
+        <v>-0.04200063216670902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004035101440512467</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009091883370844406</v>
+      </c>
+      <c r="C55">
+        <v>0.1066369260314202</v>
+      </c>
+      <c r="D55">
+        <v>-0.05162512422227209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002703359639790119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01955549281481106</v>
+      </c>
+      <c r="C56">
+        <v>0.1741651444876624</v>
+      </c>
+      <c r="D56">
+        <v>-0.04395372039883232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007830716998854658</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01910695686401792</v>
+      </c>
+      <c r="C58">
+        <v>0.1050123163684721</v>
+      </c>
+      <c r="D58">
+        <v>-0.06749775408948719</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006776487121136539</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009312703427678233</v>
+      </c>
+      <c r="C59">
+        <v>0.167230437805476</v>
+      </c>
+      <c r="D59">
+        <v>0.2894979259392012</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004515074810789789</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02328521740654653</v>
+      </c>
+      <c r="C60">
+        <v>0.2228304795625438</v>
+      </c>
+      <c r="D60">
+        <v>-0.02765621497878461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01505102808295867</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002117409584081307</v>
+      </c>
+      <c r="C61">
+        <v>0.09456619406395418</v>
+      </c>
+      <c r="D61">
+        <v>-0.06138198396008488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1706088052990937</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1436414395931704</v>
+      </c>
+      <c r="C62">
+        <v>0.08228077507505192</v>
+      </c>
+      <c r="D62">
+        <v>-0.05148102779601742</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.00160860568495217</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006335628886092596</v>
+      </c>
+      <c r="C63">
+        <v>0.05984448694301103</v>
+      </c>
+      <c r="D63">
+        <v>-0.02426371936691796</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005923127680951663</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.0147738890650204</v>
+      </c>
+      <c r="C64">
+        <v>0.1035685804202674</v>
+      </c>
+      <c r="D64">
+        <v>-0.06239102032769265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001484491009054261</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01702576965444511</v>
+      </c>
+      <c r="C65">
+        <v>0.1162451332851419</v>
+      </c>
+      <c r="D65">
+        <v>-0.02249394231458404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008774328828948292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01222231241810761</v>
+      </c>
+      <c r="C66">
+        <v>0.1563992469873215</v>
+      </c>
+      <c r="D66">
+        <v>-0.1197389255844628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003456594678111441</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01558921782511882</v>
+      </c>
+      <c r="C67">
+        <v>0.0651499027494503</v>
+      </c>
+      <c r="D67">
+        <v>-0.03050223560352243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006608850982884665</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0008949093908918645</v>
+      </c>
+      <c r="C68">
+        <v>0.09948790508008939</v>
+      </c>
+      <c r="D68">
+        <v>0.2568480408850899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003045951539730639</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005772967721258909</v>
+      </c>
+      <c r="C69">
+        <v>0.04898462438358682</v>
+      </c>
+      <c r="D69">
+        <v>-0.04200676576144071</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001746848393739857</v>
+      </c>
+      <c r="C70">
+        <v>0.002005427477163302</v>
+      </c>
+      <c r="D70">
+        <v>-0.002035637102381326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001476956382642674</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005944858825504054</v>
+      </c>
+      <c r="C71">
+        <v>0.104649610986765</v>
+      </c>
+      <c r="D71">
+        <v>0.2845624762117432</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005776439171459804</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01533071007831766</v>
+      </c>
+      <c r="C72">
+        <v>0.1490355327892821</v>
+      </c>
+      <c r="D72">
+        <v>-0.0205932878989711</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01180226228221347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.0291207846675076</v>
+      </c>
+      <c r="C73">
+        <v>0.2807933426654881</v>
+      </c>
+      <c r="D73">
+        <v>-0.04518255596767803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005115228255144835</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001140297847487758</v>
+      </c>
+      <c r="C74">
+        <v>0.1036936722265034</v>
+      </c>
+      <c r="D74">
+        <v>-0.04576163440468878</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004114462622534595</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01064706428947837</v>
+      </c>
+      <c r="C75">
+        <v>0.1323254911332842</v>
+      </c>
+      <c r="D75">
+        <v>-0.02595871479857934</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009137054629120065</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0210543737810626</v>
+      </c>
+      <c r="C76">
+        <v>0.1492261471553105</v>
+      </c>
+      <c r="D76">
+        <v>-0.06894391621837846</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-3.013864850211012e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02392768684927184</v>
+      </c>
+      <c r="C77">
+        <v>0.1318216006716568</v>
+      </c>
+      <c r="D77">
+        <v>-0.06517219730094952</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001588975245997303</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01414391376565059</v>
+      </c>
+      <c r="C78">
+        <v>0.09352611155345786</v>
+      </c>
+      <c r="D78">
+        <v>-0.06950653434562776</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.0241074141430891</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03691277054931064</v>
+      </c>
+      <c r="C79">
+        <v>0.1575957205211268</v>
+      </c>
+      <c r="D79">
+        <v>-0.03251565814710537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004833591368031062</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01040495677867594</v>
+      </c>
+      <c r="C80">
+        <v>0.04138436290655623</v>
+      </c>
+      <c r="D80">
+        <v>-0.03221240939730802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0006812542982542507</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01449196770521574</v>
+      </c>
+      <c r="C81">
+        <v>0.1244565083533015</v>
+      </c>
+      <c r="D81">
+        <v>-0.0553746655689668</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005519290160536663</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01921353836857878</v>
+      </c>
+      <c r="C82">
+        <v>0.1431037106491844</v>
+      </c>
+      <c r="D82">
+        <v>-0.04482023152739167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008953349360515873</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009865068129191815</v>
+      </c>
+      <c r="C83">
+        <v>0.05493443531163535</v>
+      </c>
+      <c r="D83">
+        <v>-0.0509508377457615</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.0124854252276545</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01149003244630385</v>
+      </c>
+      <c r="C84">
+        <v>0.03470885757818849</v>
+      </c>
+      <c r="D84">
+        <v>0.007369565351494617</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01507537043543328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02775980931457273</v>
+      </c>
+      <c r="C85">
+        <v>0.1297620047810207</v>
+      </c>
+      <c r="D85">
+        <v>-0.04702888849575646</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001208690279822787</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005384773896389431</v>
+      </c>
+      <c r="C86">
+        <v>0.04845070052436577</v>
+      </c>
+      <c r="D86">
+        <v>-0.02158742914170125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.005372344231091814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009978959255687973</v>
+      </c>
+      <c r="C87">
+        <v>0.1298360816131904</v>
+      </c>
+      <c r="D87">
+        <v>-0.07256203571038058</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01303663393301239</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002968020550782693</v>
+      </c>
+      <c r="C88">
+        <v>0.06824616873109357</v>
+      </c>
+      <c r="D88">
+        <v>-0.01381746576791472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01518863294853747</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001387312661645818</v>
+      </c>
+      <c r="C89">
+        <v>0.1555658781136455</v>
+      </c>
+      <c r="D89">
+        <v>0.3433080144506829</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003029732543205862</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00715725505718548</v>
+      </c>
+      <c r="C90">
+        <v>0.136768296168078</v>
+      </c>
+      <c r="D90">
+        <v>0.3264045043359458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0006406086389641487</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.0101233739435283</v>
+      </c>
+      <c r="C91">
+        <v>0.1048730366507186</v>
+      </c>
+      <c r="D91">
+        <v>-0.02126919882313781</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008631084688142389</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0005183859118007907</v>
+      </c>
+      <c r="C92">
+        <v>0.1426108997870701</v>
+      </c>
+      <c r="D92">
+        <v>0.3298562147855792</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0009287159738244039</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004946507844100732</v>
+      </c>
+      <c r="C93">
+        <v>0.1159306634135485</v>
+      </c>
+      <c r="D93">
+        <v>0.3135653033198346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.003170952911199123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02215202968506486</v>
+      </c>
+      <c r="C94">
+        <v>0.1561028321945132</v>
+      </c>
+      <c r="D94">
+        <v>-0.03663391417532885</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004932409725810394</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01578262521317153</v>
+      </c>
+      <c r="C95">
+        <v>0.1247078597777828</v>
+      </c>
+      <c r="D95">
+        <v>-0.06381249371868063</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001541598410581843</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03407395274979485</v>
+      </c>
+      <c r="C97">
+        <v>0.1834496413052839</v>
+      </c>
+      <c r="D97">
+        <v>-0.0263559929784601</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004048441242609218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03620419050369703</v>
+      </c>
+      <c r="C98">
+        <v>0.2515235489088581</v>
+      </c>
+      <c r="D98">
+        <v>-0.04773273982568579</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9833448180307703</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828101196184966</v>
+      </c>
+      <c r="C99">
+        <v>-0.1101077632958364</v>
+      </c>
+      <c r="D99">
+        <v>0.02990629821792069</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001495054580169085</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003109584334679062</v>
+      </c>
+      <c r="C101">
+        <v>0.0496332340464579</v>
+      </c>
+      <c r="D101">
+        <v>-0.008918209173713217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
